--- a/2020-calendar-breaks.xlsx
+++ b/2020-calendar-breaks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li\Desktop\Ara\GD\BCCE301 Cooperative Education Project\Acdamic Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Li\Desktop\Ara\GD\BCCE301DOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6C01BD-D354-4A40-B08B-9AFB8A7A2181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B98EBCC-9537-4C5E-BECD-B8ADD20194A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10010" yWindow="1370" windowWidth="14400" windowHeight="7280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Calendar Planner A4" sheetId="1" r:id="rId1"/>
@@ -247,12 +247,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -268,6 +262,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="lightDown">
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -493,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -587,23 +586,48 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -637,33 +661,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1011,39 +1012,39 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="9"/>
+  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="9"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.81640625" style="1" customWidth="1"/>
-    <col min="3" max="6" width="14.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.26953125" style="2" customWidth="1"/>
-    <col min="8" max="9" width="5.81640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.796875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="14.73046875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="5.796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.46484375" style="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.08984375" style="1"/>
+    <col min="12" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="48.75" customHeight="1" thickBot="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="74"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="11.5">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
+    <row r="2" spans="1:13" ht="11.65">
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1074,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="14">
@@ -1092,17 +1093,17 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A4" s="58"/>
+      <c r="A4" s="67"/>
       <c r="B4" s="14">
         <v>27</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="69"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="48"/>
       <c r="I4" s="48"/>
       <c r="J4" s="20">
@@ -1111,7 +1112,7 @@
       <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="14">
@@ -1121,7 +1122,7 @@
       <c r="D5" s="48"/>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
-      <c r="G5" s="70"/>
+      <c r="G5" s="54"/>
       <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="20">
@@ -1130,7 +1131,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A6" s="57"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="14">
         <v>10</v>
       </c>
@@ -1138,7 +1139,7 @@
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
       <c r="F6" s="48"/>
-      <c r="G6" s="70"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="20">
@@ -1147,147 +1148,147 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A7" s="57"/>
-      <c r="B7" s="14">
+      <c r="A7" s="66"/>
+      <c r="B7" s="60">
         <v>17</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="J7" s="20">
         <v>4</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="57" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A8" s="57"/>
-      <c r="B8" s="14">
+      <c r="A8" s="66"/>
+      <c r="B8" s="60">
         <v>24</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="J8" s="20">
         <v>5</v>
       </c>
-      <c r="K8" s="73">
+      <c r="K8" s="57">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="14">
+      <c r="A9" s="67"/>
+      <c r="B9" s="60">
         <v>31</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="J9" s="20">
         <v>6</v>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="57">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="60">
         <v>7</v>
       </c>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="J10" s="20">
         <v>7</v>
       </c>
-      <c r="K10" s="73">
+      <c r="K10" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="14">
+      <c r="A11" s="66"/>
+      <c r="B11" s="60">
         <v>14</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="50" t="s">
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="J11" s="20">
         <v>8</v>
       </c>
-      <c r="K11" s="73">
+      <c r="K11" s="57">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="14">
+      <c r="A12" s="66"/>
+      <c r="B12" s="60">
         <v>21</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="J12" s="20">
         <v>9</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="57">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
-      <c r="A13" s="58"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="14">
         <v>28</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="40"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="60"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="20">
         <v>10</v>
       </c>
-      <c r="K13" s="73" t="s">
+      <c r="K13" s="57" t="s">
         <v>30</v>
       </c>
       <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="65" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="14">
@@ -1303,12 +1304,12 @@
       <c r="J14" s="20">
         <v>11</v>
       </c>
-      <c r="K14" s="73" t="s">
+      <c r="K14" s="57" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="14">
         <v>12</v>
       </c>
@@ -1322,12 +1323,12 @@
       <c r="J15" s="20">
         <v>12</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="57">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="14">
         <v>19</v>
       </c>
@@ -1341,12 +1342,12 @@
       <c r="J16" s="20">
         <v>13</v>
       </c>
-      <c r="K16" s="73">
+      <c r="K16" s="57">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="15">
         <v>26</v>
       </c>
@@ -1362,12 +1363,12 @@
       <c r="J17" s="20">
         <v>14</v>
       </c>
-      <c r="K17" s="73">
+      <c r="K17" s="57">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="65" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="15">
@@ -1383,33 +1384,33 @@
       <c r="J18" s="20">
         <v>15</v>
       </c>
-      <c r="K18" s="73">
+      <c r="K18" s="57">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="15">
         <v>9</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72" t="s">
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
       <c r="J19" s="20">
         <v>16</v>
       </c>
-      <c r="K19" s="73">
+      <c r="K19" s="57">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="15">
         <v>16</v>
       </c>
@@ -1425,10 +1426,10 @@
       <c r="J20" s="20">
         <v>17</v>
       </c>
-      <c r="K20" s="73"/>
+      <c r="K20" s="57"/>
     </row>
     <row r="21" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A21" s="57"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="14">
         <v>23</v>
       </c>
@@ -1442,12 +1443,12 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
       <c r="J21" s="20"/>
-      <c r="K21" s="75" t="s">
+      <c r="K21" s="59" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A22" s="58"/>
+      <c r="A22" s="67"/>
       <c r="B22" s="14">
         <v>30</v>
       </c>
@@ -1457,18 +1458,18 @@
       <c r="D22" s="29"/>
       <c r="E22" s="33"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="74" t="s">
+      <c r="G22" s="58" t="s">
         <v>28</v>
       </c>
       <c r="H22" s="28"/>
       <c r="I22" s="28"/>
       <c r="J22" s="20"/>
-      <c r="K22" s="75" t="s">
+      <c r="K22" s="59" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="68" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="14">
@@ -1491,7 +1492,7 @@
       <c r="K23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A24" s="60"/>
+      <c r="A24" s="69"/>
       <c r="B24" s="14">
         <v>14</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="K24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="25.9" customHeight="1">
-      <c r="A25" s="61"/>
+      <c r="A25" s="70"/>
       <c r="B25" s="14">
         <v>21</v>
       </c>
@@ -1583,7 +1584,7 @@
     <row r="41" spans="11:11" ht="13.5" customHeight="1">
       <c r="K41" s="5"/>
     </row>
-    <row r="42" spans="11:11" ht="14.5" customHeight="1">
+    <row r="42" spans="11:11" ht="14.55" customHeight="1">
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="11:11" ht="22.9" customHeight="1">
@@ -1622,7 +1623,7 @@
     <row r="54" spans="11:11" ht="13.5" customHeight="1">
       <c r="K54" s="5"/>
     </row>
-    <row r="55" spans="11:11" ht="20.5" customHeight="1">
+    <row r="55" spans="11:11" ht="20.55" customHeight="1">
       <c r="K55" s="5"/>
     </row>
   </sheetData>
